--- a/horseland_products.xlsx
+++ b/horseland_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surej\VsCodeProjects\horseland-productor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC059C94-5B1B-46FB-9B03-9E5C7B573F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B23C7F2-3D60-4179-A2F4-7D6E36DDFAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
